--- a/document/Add-Products.xlsx
+++ b/document/Add-Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\Back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0785389-6DB8-4769-AF26-B6B6CCE9A5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E8216-0125-4323-8658-A4C28E67CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve"> Program Outline</t>
   </si>
@@ -74,37 +74,58 @@
     <t>SystemName</t>
   </si>
   <si>
-    <t>Chuyển giao diện qua trang giỏ hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">price: 0 </t>
   </si>
   <si>
     <t>count: 0</t>
   </si>
   <si>
-    <t>2.1. Xử lý khi click button quay lại trang quản lý</t>
-  </si>
-  <si>
-    <t>2.2. Xử lý click button lưu</t>
-  </si>
-  <si>
-    <t>Kiểm tra xem người dùng đã nhập đầy đủ các trường hay chưa</t>
-  </si>
-  <si>
-    <t>Nếu người dùng chưa nhập đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo yêu cầu nhập thông tin và dừng lại</t>
-  </si>
-  <si>
-    <t>Nếu người dùng đã nhập đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>Lưu thông tin mặt hàng vào database hiển thị thông báo đã thêm thành công</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xử lý cho người dùng thêm mặt hàng mới </t>
+  </si>
+  <si>
+    <t>2.1. Xử lý khi Click button BackToAdminPage</t>
+  </si>
+  <si>
+    <t>Xử lý chuyển giao diện về trang quản lý.</t>
+  </si>
+  <si>
+    <t>2.2. Xử lý khi Click button Save</t>
+  </si>
+  <si>
+    <t>Nếu productName, productCategory, price, count, description, image, coverImage chưa được nhập.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Please fill out this field" ở trên trường chưa được nhập rồi ngưng xử lý.</t>
+  </si>
+  <si>
+    <t>Nếu productName, productCategory, price, count, description, image, coverImage đã được nhập.</t>
+  </si>
+  <si>
+    <t>Lấy thông tin đã nhập của người dùng từ các trường productName, productCategory, price, count, description, image, coverImage để lưu trữ vào database</t>
+  </si>
+  <si>
+    <t>Hiển thị dialog với nội dung: Product Added</t>
+  </si>
+  <si>
+    <t>2.3. Xử lý khi Click button Choose File</t>
+  </si>
+  <si>
+    <t>Hiển thị Pop-up hiển thị danh mục các tệp trong thư mục Download của người dùng</t>
+  </si>
+  <si>
+    <t>Nếu người dùng chọn 1 tệp tương ứng.</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin tệp người dùng vừa chọn vào Clipboard và hiển thị thông tin tệp lên trường txtImage tương ứng.</t>
+  </si>
+  <si>
+    <t>Nếu người dùng Click button Show all file</t>
+  </si>
+  <si>
+    <t>Hiển thị cửa sổ File Explorer của người dùng tại thư mục Download</t>
+  </si>
+  <si>
+    <t>Khi người dùng chọn 1 tệp và Click vào Button Open</t>
   </si>
 </sst>
 </file>
@@ -576,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -753,6 +774,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,6 +832,50 @@
         <a:xfrm>
           <a:off x="106101" y="742711"/>
           <a:ext cx="5062217" cy="2671822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1785775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309E58DD-8233-FA96-DCB0-7A946D9E3B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144685" y="3510986"/>
+          <a:ext cx="4110356" cy="3054443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A379C9-C937-4045-B884-518D9F5F8D7E}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1246,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1531,7 +1598,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1678,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -1628,7 +1695,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -1695,7 +1762,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -1711,7 +1778,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -1729,7 +1796,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -1747,7 +1814,7 @@
       <c r="B13" s="32"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -1762,11 +1829,11 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1781,7 +1848,7 @@
       <c r="B15" s="32"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -1797,10 +1864,10 @@
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
-        <v>21</v>
-      </c>
+      <c r="D16" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -1812,15 +1879,17 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="80" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="46"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -1828,14 +1897,16 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="C18" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="46"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -1844,13 +1915,15 @@
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="D19" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="46"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
@@ -1860,72 +1933,82 @@
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="E20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="46"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="46"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="46"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="46"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="46"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
